--- a/outputs-HGR-r202-archive/g__CAG-521.xlsx
+++ b/outputs-HGR-r202-archive/g__CAG-521.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,498 +573,6 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT44433.fa</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.0487378827072706</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.01762441942158469</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.02813131400527578</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.003274229725758452</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.8389977830603833</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.0619124760755054</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.0013218950042218</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.8389977830603833</v>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>s__CAG-521 sp900546995</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>s__CAG-521 sp900546995</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT46496.fa</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.09704486960643974</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.02175725025466978</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.03423537723200727</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.009105912720362248</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.7793176589745098</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.05761247325309813</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.0009264579589130954</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.7793176589745098</v>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>s__CAG-521 sp900546995</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>s__CAG-521 sp900546995</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT46649.fa</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.1213691115683716</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.01374619370061717</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.04298153571165112</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.002220309942592972</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.7732893916516987</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.04410861115334973</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.002284846271718716</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.7732893916516987</v>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>s__CAG-521 sp900546995</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>s__CAG-521 sp900546995</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT48926.fa</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.04368674397277811</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.02057203915198594</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.03110074355308776</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.003981148353323052</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.8457518077546642</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.05458204379355629</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.0003254734206047144</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.8457518077546642</v>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>s__CAG-521 sp900546995</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>s__CAG-521 sp900546995</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT49076.fa</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0.07698554139566624</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.04868953786555097</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.04985569076512484</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.009463050382112752</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.7006302319454885</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.1102492226928753</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.004126724953181705</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.7006302319454885</v>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>s__CAG-521 sp900546995</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>s__CAG-521 sp900546995</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT49107.fa</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0.06044262004852339</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.008533643543711314</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.01753037887256448</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.002092261524078627</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.8707856120600632</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.03933310813927197</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.001282375811787094</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.8707856120600632</v>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>s__CAG-521 sp900546995</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>s__CAG-521 sp900546995</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT49445.fa</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>0.04993794892274501</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.009893377139071402</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.03830239247406976</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.00137751358488354</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.8549806142142048</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.04510904184644469</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.0003991118185808955</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.8549806142142048</v>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>s__CAG-521 sp900546995</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>s__CAG-521 sp900546995</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT68537.fa</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0.03260297137874692</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.01447912921238715</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.0271243952547161</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.009793697796755485</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.8562982208594544</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.05951599635341052</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.0001855891445294613</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.8562982208594544</v>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>s__CAG-521 sp900546995</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>s__CAG-521 sp900546995</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT80685.fa</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0.08168029652091779</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.0241025804127539</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.0418271218815462</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.002437005635567024</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.8080548876962435</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.04129286187638712</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.0006052459765844496</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.8080548876962435</v>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>s__CAG-521 sp900546995</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>s__CAG-521 sp900546995</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT90614.fa</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0.1948572925650205</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.04990335737063964</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.04172997133873013</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.001988504070988547</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.1242005355152259</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.06123920085900372</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0.5260811382803915</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.5260811382803915</v>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>s__CAG-521 sp900554675</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>s__CAG-521 sp900554675(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT90675.fa</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0.177518093059733</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.05209999325421801</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.04427481575106714</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.001754811520168375</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.08315140636961921</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.04644173664424315</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.5947591434009512</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0.5947591434009512</v>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>s__CAG-521 sp900554675</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>s__CAG-521 sp900554675</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT90995.fa</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>0.2542713470652533</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.05975581933413301</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.04478240904087118</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.003771564112342259</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.1035107586774508</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.04390765363619192</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.4900004481337575</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0.4900004481337575</v>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>s__CAG-521 sp900554675</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>s__CAG-521 sp900554675(reject)</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
